--- a/resources/emissions_example.xlsx
+++ b/resources/emissions_example.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/holly/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/holly/Documents/Masters/HPDM099/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6287D6-5E89-E44B-A0DB-0D5F75CB1EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73129291-DDEB-E14F-921C-4A513BAF1C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17340" xr2:uid="{69273F51-949B-5A4C-B018-BD7943B4FF10}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="new_product-2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t>product</t>
   </si>
@@ -71,6 +71,510 @@
   </si>
   <si>
     <t>landfill_1</t>
+  </si>
+  <si>
+    <t>component_2</t>
+  </si>
+  <si>
+    <t>manu_year_2</t>
+  </si>
+  <si>
+    <t>mass_kg_2</t>
+  </si>
+  <si>
+    <t>no_uses_2</t>
+  </si>
+  <si>
+    <t>biogenic_2</t>
+  </si>
+  <si>
+    <t>manu_loc_2</t>
+  </si>
+  <si>
+    <t>debark_port_2</t>
+  </si>
+  <si>
+    <t>depart_loc_uk_2</t>
+  </si>
+  <si>
+    <t>reprocessing_2</t>
+  </si>
+  <si>
+    <t>recycle_2</t>
+  </si>
+  <si>
+    <t>incinerate_2</t>
+  </si>
+  <si>
+    <t>landfill_2</t>
+  </si>
+  <si>
+    <t>component_3</t>
+  </si>
+  <si>
+    <t>manu_year_3</t>
+  </si>
+  <si>
+    <t>mass_kg_3</t>
+  </si>
+  <si>
+    <t>no_uses_3</t>
+  </si>
+  <si>
+    <t>biogenic_3</t>
+  </si>
+  <si>
+    <t>manu_loc_3</t>
+  </si>
+  <si>
+    <t>debark_port_3</t>
+  </si>
+  <si>
+    <t>depart_loc_uk_3</t>
+  </si>
+  <si>
+    <t>reprocessing_3</t>
+  </si>
+  <si>
+    <t>recycle_3</t>
+  </si>
+  <si>
+    <t>incinerate_3</t>
+  </si>
+  <si>
+    <t>landfill_3</t>
+  </si>
+  <si>
+    <t>component_4</t>
+  </si>
+  <si>
+    <t>manu_year_4</t>
+  </si>
+  <si>
+    <t>mass_kg_4</t>
+  </si>
+  <si>
+    <t>no_uses_4</t>
+  </si>
+  <si>
+    <t>biogenic_4</t>
+  </si>
+  <si>
+    <t>manu_loc_4</t>
+  </si>
+  <si>
+    <t>debark_port_4</t>
+  </si>
+  <si>
+    <t>depart_loc_uk_4</t>
+  </si>
+  <si>
+    <t>reprocessing_4</t>
+  </si>
+  <si>
+    <t>recycle_4</t>
+  </si>
+  <si>
+    <t>incinerate_4</t>
+  </si>
+  <si>
+    <t>landfill_4</t>
+  </si>
+  <si>
+    <t>component_5</t>
+  </si>
+  <si>
+    <t>manu_year_5</t>
+  </si>
+  <si>
+    <t>mass_kg_5</t>
+  </si>
+  <si>
+    <t>no_uses_5</t>
+  </si>
+  <si>
+    <t>biogenic_5</t>
+  </si>
+  <si>
+    <t>manu_loc_5</t>
+  </si>
+  <si>
+    <t>debark_port_5</t>
+  </si>
+  <si>
+    <t>depart_loc_uk_5</t>
+  </si>
+  <si>
+    <t>reprocessing_5</t>
+  </si>
+  <si>
+    <t>recycle_5</t>
+  </si>
+  <si>
+    <t>incinerate_5</t>
+  </si>
+  <si>
+    <t>landfill_5</t>
+  </si>
+  <si>
+    <t>component_6</t>
+  </si>
+  <si>
+    <t>manu_year_6</t>
+  </si>
+  <si>
+    <t>mass_kg_6</t>
+  </si>
+  <si>
+    <t>no_uses_6</t>
+  </si>
+  <si>
+    <t>biogenic_6</t>
+  </si>
+  <si>
+    <t>manu_loc_6</t>
+  </si>
+  <si>
+    <t>debark_port_6</t>
+  </si>
+  <si>
+    <t>depart_loc_uk_6</t>
+  </si>
+  <si>
+    <t>reprocessing_6</t>
+  </si>
+  <si>
+    <t>recycle_6</t>
+  </si>
+  <si>
+    <t>incinerate_6</t>
+  </si>
+  <si>
+    <t>landfill_6</t>
+  </si>
+  <si>
+    <t>component_7</t>
+  </si>
+  <si>
+    <t>manu_year_7</t>
+  </si>
+  <si>
+    <t>mass_kg_7</t>
+  </si>
+  <si>
+    <t>no_uses_7</t>
+  </si>
+  <si>
+    <t>biogenic_7</t>
+  </si>
+  <si>
+    <t>manu_loc_7</t>
+  </si>
+  <si>
+    <t>debark_port_7</t>
+  </si>
+  <si>
+    <t>depart_loc_uk_7</t>
+  </si>
+  <si>
+    <t>reprocess_7</t>
+  </si>
+  <si>
+    <t>recycle_7</t>
+  </si>
+  <si>
+    <t>incinerate_7</t>
+  </si>
+  <si>
+    <t>landfill_7</t>
+  </si>
+  <si>
+    <t>component_8</t>
+  </si>
+  <si>
+    <t>manu_year_8</t>
+  </si>
+  <si>
+    <t>mass_kg_8</t>
+  </si>
+  <si>
+    <t>no_uses_8</t>
+  </si>
+  <si>
+    <t>biogenic_8</t>
+  </si>
+  <si>
+    <t>manu_loc_8</t>
+  </si>
+  <si>
+    <t>debark_port_8</t>
+  </si>
+  <si>
+    <t>depart_loc_uk_8</t>
+  </si>
+  <si>
+    <t>reprocess_8</t>
+  </si>
+  <si>
+    <t>recycle_8</t>
+  </si>
+  <si>
+    <t>incinerate_8</t>
+  </si>
+  <si>
+    <t>landfill_8</t>
+  </si>
+  <si>
+    <t>component_9</t>
+  </si>
+  <si>
+    <t>manu_year_9</t>
+  </si>
+  <si>
+    <t>mass_kg_9</t>
+  </si>
+  <si>
+    <t>no_uses_9</t>
+  </si>
+  <si>
+    <t>biogenic_9</t>
+  </si>
+  <si>
+    <t>manu_loc_9</t>
+  </si>
+  <si>
+    <t>debark_port_9</t>
+  </si>
+  <si>
+    <t>depart_loc_uk_9</t>
+  </si>
+  <si>
+    <t>reprocess_9</t>
+  </si>
+  <si>
+    <t>recycle_9</t>
+  </si>
+  <si>
+    <t>incinerate_9</t>
+  </si>
+  <si>
+    <t>landfill_9</t>
+  </si>
+  <si>
+    <t>component_10</t>
+  </si>
+  <si>
+    <t>manu_year_10</t>
+  </si>
+  <si>
+    <t>mass_kg_10</t>
+  </si>
+  <si>
+    <t>no_uses_10</t>
+  </si>
+  <si>
+    <t>biogenic_10</t>
+  </si>
+  <si>
+    <t>manu_loc_10</t>
+  </si>
+  <si>
+    <t>debark_port_10</t>
+  </si>
+  <si>
+    <t>depart_loc_uk_10</t>
+  </si>
+  <si>
+    <t>reprocess_10</t>
+  </si>
+  <si>
+    <t>recycle_10</t>
+  </si>
+  <si>
+    <t>incinerate_10</t>
+  </si>
+  <si>
+    <t>landfill_10</t>
+  </si>
+  <si>
+    <t>component_11</t>
+  </si>
+  <si>
+    <t>manu_year_11</t>
+  </si>
+  <si>
+    <t>mass_kg_11</t>
+  </si>
+  <si>
+    <t>no_uses_11</t>
+  </si>
+  <si>
+    <t>biogenic_11</t>
+  </si>
+  <si>
+    <t>manu_loc_11</t>
+  </si>
+  <si>
+    <t>debark_port_11</t>
+  </si>
+  <si>
+    <t>depart_loc_uk_11</t>
+  </si>
+  <si>
+    <t>reprocess_11</t>
+  </si>
+  <si>
+    <t>recycle_11</t>
+  </si>
+  <si>
+    <t>incinerate_11</t>
+  </si>
+  <si>
+    <t>landfill_11</t>
+  </si>
+  <si>
+    <t>component_12</t>
+  </si>
+  <si>
+    <t>manu_year_12</t>
+  </si>
+  <si>
+    <t>mass_kg_12</t>
+  </si>
+  <si>
+    <t>no_uses_12</t>
+  </si>
+  <si>
+    <t>biogenic_12</t>
+  </si>
+  <si>
+    <t>manu_loc_12</t>
+  </si>
+  <si>
+    <t>debark_port_12</t>
+  </si>
+  <si>
+    <t>depart_loc_uk_12</t>
+  </si>
+  <si>
+    <t>reprocess_12</t>
+  </si>
+  <si>
+    <t>recycle_12</t>
+  </si>
+  <si>
+    <t>incinerate_12</t>
+  </si>
+  <si>
+    <t>landfill_12</t>
+  </si>
+  <si>
+    <t>component_13</t>
+  </si>
+  <si>
+    <t>manu_year_13</t>
+  </si>
+  <si>
+    <t>mass_kg_13</t>
+  </si>
+  <si>
+    <t>no_uses_13</t>
+  </si>
+  <si>
+    <t>biogenic_13</t>
+  </si>
+  <si>
+    <t>manu_loc_13</t>
+  </si>
+  <si>
+    <t>debark_port_13</t>
+  </si>
+  <si>
+    <t>depart_loc_uk_13</t>
+  </si>
+  <si>
+    <t>reprocess_13</t>
+  </si>
+  <si>
+    <t>recycle_13</t>
+  </si>
+  <si>
+    <t>incinerate_13</t>
+  </si>
+  <si>
+    <t>landfill_13</t>
+  </si>
+  <si>
+    <t>component_14</t>
+  </si>
+  <si>
+    <t>manu_year_14</t>
+  </si>
+  <si>
+    <t>mass_kg_14</t>
+  </si>
+  <si>
+    <t>no_uses_14</t>
+  </si>
+  <si>
+    <t>biogenic_14</t>
+  </si>
+  <si>
+    <t>manu_loc_14</t>
+  </si>
+  <si>
+    <t>debark_port_14</t>
+  </si>
+  <si>
+    <t>depart_loc_uk_14</t>
+  </si>
+  <si>
+    <t>reprocess_14</t>
+  </si>
+  <si>
+    <t>recycle_14</t>
+  </si>
+  <si>
+    <t>incinerate_14</t>
+  </si>
+  <si>
+    <t>landfill_14</t>
+  </si>
+  <si>
+    <t>component_15</t>
+  </si>
+  <si>
+    <t>manu_year_15</t>
+  </si>
+  <si>
+    <t>mass_kg_15</t>
+  </si>
+  <si>
+    <t>no_uses_15</t>
+  </si>
+  <si>
+    <t>biogenic_15</t>
+  </si>
+  <si>
+    <t>manu_loc_15</t>
+  </si>
+  <si>
+    <t>debark_port_15</t>
+  </si>
+  <si>
+    <t>depart_loc_uk_15</t>
+  </si>
+  <si>
+    <t>reprocess_15</t>
+  </si>
+  <si>
+    <t>recycle_15</t>
+  </si>
+  <si>
+    <t>incinerate_15</t>
+  </si>
+  <si>
+    <t>landfill_15</t>
   </si>
   <si>
     <t>manufacture_emissions</t>
@@ -95,11 +599,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,17 +612,311 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -125,16 +924,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -150,56 +1137,150 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -342,102 +1423,598 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:W1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B989A85-52A9-E149-9665-E78E43DB29EC}">
+  <dimension ref="A1:GI1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="18" max="18" width="18.6640625" customWidth="1"/>
-    <col min="19" max="19" width="15.83203125" customWidth="1"/>
-    <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="18.83203125" customWidth="1"/>
-    <col min="22" max="22" width="15.5" customWidth="1"/>
-    <col min="23" max="23" width="15.1640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:191" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>181</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>182</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>183</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>186</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>187</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>188</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>189</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>